--- a/ERPProject/UploadFiles/FileTam/Danh sách cuộc họp.xlsx
+++ b/ERPProject/UploadFiles/FileTam/Danh sách cuộc họp.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc47e41b658644f4f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd1d23e40a6a44242"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/ERPProject/UploadFiles/FileTam/Danh sách cuộc họp.xlsx
+++ b/ERPProject/UploadFiles/FileTam/Danh sách cuộc họp.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rfc8a0877345c4aa6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R018542b49b334375"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -153,6 +153,11 @@
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:cols>
+    <x:col min="1" max="2" width="5" customWidth="1"/>
+    <x:col min="2" max="3" width="30" customWidth="1"/>
+    <x:col min="3" max="10" width="10" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row>
       <x:c s="0" t="str">
@@ -165,34 +170,259 @@
         <x:v>AN DƯƠNG</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>AN DƯƠNG</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>CẦU NGUYỆT</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU NGUYỆT</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>VẬT CÁCH</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VẬT CÁCH</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>MÁY TƠ</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>MÁY TƠ</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>MÁY TƠ</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>MÁY TƠ</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>MÁY TƠ</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>MÁY TƠ</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>SỞ DẦU</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>SỞ DẦU</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>SỞ DẦU</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>SỞ DẦU</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>CẦU KIẾN AN</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>CẦU KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>CẦU KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>BƯU ĐIỆN KIẾN AN</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>BƯU ĐIỆN KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>VƯỜN HOA KIẾN AN</x:v>
       </x:c>
       <x:c s="1" t="str">
+        <x:v>VƯỜN HOA KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VƯỜN HOA KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VƯỜN HOA KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>VƯỜN HOA KIẾN AN</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>HANVICO</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>HANVICO</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>HANVICO</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>ĐỒNG HÒA</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>ĐỒNG HÒA</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>ĐỒNG HÒA</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>ĐỒNG HÒA</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>ĐỒNG HÒA</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>ĐỒNG HÒA</x:v>
       </x:c>
       <x:c s="1" t="str">
         <x:v>ĐỒNG HÒA</x:v>
       </x:c>
     </x:row>
     <x:row>
+      <x:c s="0" t="str">
+        <x:v>STT</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Thời Gian</x:v>
+      </x:c>
       <x:c s="1" t="str">
         <x:v>ÁP LỰC 1</x:v>
       </x:c>
@@ -445,6 +675,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -696,6 +932,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -947,6 +1189,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -1198,6 +1446,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -1449,6 +1703,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -1700,6 +1960,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -1951,6 +2217,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -2202,6 +2474,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -2453,6 +2731,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -2704,6 +2988,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -2955,6 +3245,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -3206,6 +3502,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 00:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -3457,6 +3759,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -3708,6 +4016,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -3959,6 +4273,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -4210,6 +4530,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -4461,6 +4787,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -4712,6 +5044,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -4963,6 +5301,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -5214,6 +5558,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -5465,6 +5815,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -5716,6 +6072,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -5967,6 +6329,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -6218,6 +6586,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 01:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -6469,6 +6843,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -6720,6 +7100,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -6971,6 +7357,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -7222,6 +7614,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -7473,6 +7871,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -7724,6 +8128,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -7975,6 +8385,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -8226,6 +8642,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -8477,6 +8899,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -8728,6 +9156,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -8979,6 +9413,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -9230,6 +9670,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 02:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -9481,6 +9927,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -9732,6 +10184,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -9983,6 +10441,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -10234,6 +10698,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -10485,6 +10955,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -10736,6 +11212,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -10987,6 +11469,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -11238,6 +11726,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -11489,6 +11983,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -11740,6 +12240,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -11991,6 +12497,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -12242,6 +12754,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 03:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -12493,6 +13011,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -12744,6 +13268,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -12995,6 +13525,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -13246,6 +13782,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -13497,6 +14039,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -13748,6 +14296,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -13999,6 +14553,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -14250,6 +14810,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -14501,6 +15067,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -14752,6 +15324,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -15003,6 +15581,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -15254,6 +15838,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 04:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -15505,6 +16095,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -15756,6 +16352,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -16007,6 +16609,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -16258,6 +16866,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -16509,6 +17123,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -16760,6 +17380,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -17011,6 +17637,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>2.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -17262,6 +17894,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.0</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -17513,6 +18151,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.0</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -17764,6 +18408,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.0</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -18015,6 +18665,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.0</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -18266,6 +18922,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 05:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -18517,6 +19179,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.6</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -18768,6 +19436,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -19019,6 +19693,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -19270,6 +19950,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -19521,6 +20207,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -19772,6 +20464,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -20023,6 +20721,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -20274,6 +20978,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -20525,6 +21235,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -20776,6 +21492,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -21027,6 +21749,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -21278,6 +22006,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 06:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -21529,6 +22263,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -21780,6 +22520,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -22031,6 +22777,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -22282,6 +23034,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -22533,6 +23291,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -22784,6 +23548,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -23035,6 +23805,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -23286,6 +24062,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -23537,6 +24319,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -23788,6 +24576,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -24039,6 +24833,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -24290,6 +25090,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 07:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -24541,6 +25347,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -24792,6 +25604,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -25043,6 +25861,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -25294,6 +26118,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -25545,6 +26375,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -25796,6 +26632,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -26047,6 +26889,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -26298,6 +27146,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -26549,6 +27403,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -26800,6 +27660,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -27051,6 +27917,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -27302,6 +28174,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 08:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -27553,6 +28431,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -27804,6 +28688,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -28055,6 +28945,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -28306,6 +29202,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -28557,6 +29459,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -28808,6 +29716,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -29059,6 +29973,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -29310,6 +30230,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -29561,6 +30487,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -29812,6 +30744,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -30063,6 +31001,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -30314,6 +31258,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 09:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -30565,6 +31515,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -30816,6 +31772,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -31067,6 +32029,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -31318,6 +32286,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -31569,6 +32543,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -31820,6 +32800,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -32071,6 +33057,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -32322,6 +33314,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -32573,6 +33571,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -32824,6 +33828,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -33075,6 +34085,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -33326,6 +34342,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 10:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -33577,6 +34599,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -33828,6 +34856,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -34079,6 +35113,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -34330,6 +35370,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -34581,6 +35627,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -34832,6 +35884,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -35083,6 +36141,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -35334,6 +36398,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -35585,6 +36655,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -35836,6 +36912,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -36087,6 +37169,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -36338,6 +37426,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 11:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -36589,6 +37683,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -36840,6 +37940,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -37091,6 +38197,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -37342,6 +38454,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -37593,6 +38711,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -37844,6 +38968,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -38095,6 +39225,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -38346,6 +39482,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -38597,6 +39739,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -38848,6 +39996,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -39099,6 +40253,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -39350,6 +40510,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 12:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -39601,6 +40767,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -39852,6 +41024,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -40103,6 +41281,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -40354,6 +41538,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.3</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -40605,6 +41795,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.3</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -40856,6 +42052,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -41107,6 +42309,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -41358,6 +42566,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -41609,6 +42823,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -41860,6 +43080,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -42111,6 +43337,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -42362,6 +43594,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 13:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -42613,6 +43851,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -42864,6 +44108,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -43115,6 +44365,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -43366,6 +44622,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -43617,6 +44879,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -43868,6 +45136,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -44119,6 +45393,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -44370,6 +45650,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -44621,6 +45907,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -44872,6 +46164,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -45123,6 +46421,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -45374,6 +46678,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 14:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -45625,6 +46935,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -45876,6 +47192,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -46127,6 +47449,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -46378,6 +47706,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -46629,6 +47963,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -46880,6 +48220,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -47131,6 +48477,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -47382,6 +48734,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -47633,6 +48991,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -47884,6 +49248,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -48135,6 +49505,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -48386,6 +49762,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 15:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -48637,6 +50019,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -48888,6 +50276,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -49139,6 +50533,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -49390,6 +50790,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -49641,6 +51047,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -49892,6 +51304,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.2</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -50143,6 +51561,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -50394,6 +51818,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -50645,6 +52075,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -50896,6 +52332,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -51147,6 +52589,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -51398,6 +52846,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 16:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.7</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -51649,6 +53103,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -51900,6 +53360,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -52151,6 +53617,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -52402,6 +53874,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -52653,6 +54131,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -52904,6 +54388,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -53155,6 +54645,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -53406,6 +54902,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -53657,6 +55159,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -53908,6 +55416,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -54159,6 +55673,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -54410,6 +55930,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 17:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -54661,6 +56187,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.9</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -54912,6 +56444,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -55163,6 +56701,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -55414,6 +56958,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -55665,6 +57215,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -55916,6 +57472,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -56167,6 +57729,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -56418,6 +57986,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -56669,6 +58243,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -56920,6 +58500,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -57171,6 +58757,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -57422,6 +59014,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 18:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -57673,6 +59271,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -57924,6 +59528,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -58175,6 +59785,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -58426,6 +60042,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -58677,6 +60299,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -58928,6 +60556,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -59179,6 +60813,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -59430,6 +61070,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -59681,6 +61327,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -59932,6 +61584,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -60183,6 +61841,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -60434,6 +62098,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 19:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -60685,6 +62355,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -60936,6 +62612,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -61187,6 +62869,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -61438,6 +63126,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -61689,6 +63383,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -61940,6 +63640,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -62191,6 +63897,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -62442,6 +64154,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -62693,6 +64411,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -62944,6 +64668,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -63195,6 +64925,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -63446,6 +65182,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 20:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -63697,6 +65439,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -63948,6 +65696,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:05:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -64199,6 +65953,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:10:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -64450,6 +66210,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:15:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -64701,6 +66467,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:20:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -64952,6 +66724,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:25:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -65203,6 +66981,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:30:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -65454,6 +67238,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:35:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -65705,6 +67495,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:40:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -65956,6 +67752,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:45:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.8</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -66207,6 +68009,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:50:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -66458,6 +68266,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 21:55:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -66709,6 +68523,12 @@
     </x:row>
     <x:row>
       <x:c s="1" t="str">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c s="1" t="str">
+        <x:v>26/09/2023 22:00:00</x:v>
+      </x:c>
+      <x:c s="1" t="str">
         <x:v>3.5</x:v>
       </x:c>
       <x:c s="1" t="str">
@@ -66959,5 +68779,9 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells>
+    <x:mergeCell ref="A1:A2"/>
+    <x:mergeCell ref="B1:B2"/>
+  </x:mergeCells>
 </x:worksheet>
 </file>